--- a/Base/Teams/Giants/Players Stats.xlsx
+++ b/Base/Teams/Giants/Players Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Giants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Giants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E8FD79-897F-4289-A083-0978285CDD25}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27BF9AF-7A46-40AB-80C2-FF86617F218D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>C.Myarick</t>
+  </si>
+  <si>
+    <t>J.Fromm</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,6 +594,44 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Giants/Players Stats.xlsx
+++ b/Base/Teams/Giants/Players Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Giants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27BF9AF-7A46-40AB-80C2-FF86617F218D}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2646C1-82B7-45D4-8918-831630A013F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>J.Fromm</t>
+  </si>
+  <si>
+    <t>D.Sills</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -849,10 +852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,6 +1148,38 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
